--- a/GL_Login_21B.xlsx
+++ b/GL_Login_21B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\21B_Results_and_Scripts\GNB GL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF_Selenium_IGA-master\venv\Selenium\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E2E9ED-3F5B-428A-B11E-DB74F63705AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EBB17A-04CA-411E-B3AA-5E1F9E4B940A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MasterLogin" sheetId="30" r:id="rId1"/>
@@ -1022,7 +1022,7 @@
     <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _P_t_s_-;\-* #,##0.00\ _P_t_s_-;_-* &quot;-&quot;??\ _P_t_s_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_-[$€-2]* #,##0.00_-;\-[$€-2]* #,##0.00_-;_-[$€-2]* &quot;-&quot;??_-"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="33">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1204,21 +1204,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="48">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1471,12 +1458,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9435,25 +9416,22 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="45" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="45" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="45" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="47" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7828">
@@ -18133,517 +18111,521 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.1796875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.1796875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="33.81640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="26.26953125" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.7265625" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.7265625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22.453125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.7265625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="35.26953125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="38.26953125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.26953125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.81640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="9.1796875" style="3" collapsed="1"/>
+    <col min="1" max="1" width="17.7265625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.1796875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.1796875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="33.81640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="26.26953125" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.7265625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.7265625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="22.453125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7265625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="35.26953125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="38.26953125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.26953125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.81640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9.1796875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1" ht="24.5" customHeight="1">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="K2" s="6"/>
+      <c r="M2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="K3" s="6"/>
+      <c r="M3" s="4" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="K4" s="6"/>
+      <c r="M4" s="4" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="M5" s="3" t="s">
+      <c r="K5" s="2"/>
+      <c r="M5" s="4" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <v>30</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="M6" s="3" t="s">
+      <c r="K6" s="2"/>
+      <c r="M6" s="4" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="6" customFormat="1">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:13" customFormat="1">
+      <c r="A7" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3" t="s">
+      <c r="I7" s="2"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="4" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="I15" s="3"/>
+      <c r="I15" s="2"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="3"/>
+      <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
     </row>
-    <row r="17" s="3" customFormat="1"/>
-    <row r="18" s="3" customFormat="1"/>
-    <row r="19" s="3" customFormat="1"/>
-    <row r="20" s="3" customFormat="1"/>
-    <row r="21" s="3" customFormat="1"/>
-    <row r="22" s="3" customFormat="1"/>
-    <row r="23" s="3" customFormat="1"/>
-    <row r="24" s="3" customFormat="1"/>
-    <row r="25" s="3" customFormat="1"/>
-    <row r="26" s="3" customFormat="1"/>
-    <row r="27" s="3" customFormat="1"/>
-    <row r="28" s="3" customFormat="1"/>
-    <row r="29" s="3" customFormat="1"/>
-    <row r="30" s="3" customFormat="1"/>
-    <row r="31" s="3" customFormat="1"/>
-    <row r="32" s="3" customFormat="1"/>
-    <row r="33" s="3" customFormat="1"/>
-    <row r="34" s="3" customFormat="1"/>
-    <row r="35" s="3" customFormat="1"/>
-    <row r="36" s="3" customFormat="1"/>
-    <row r="37" s="3" customFormat="1"/>
-    <row r="38" s="3" customFormat="1"/>
-    <row r="39" s="3" customFormat="1"/>
-    <row r="40" s="3" customFormat="1"/>
-    <row r="41" s="3" customFormat="1"/>
-    <row r="42" s="3" customFormat="1"/>
-    <row r="43" s="3" customFormat="1"/>
-    <row r="44" s="3" customFormat="1"/>
-    <row r="45" s="3" customFormat="1"/>
-    <row r="46" s="3" customFormat="1"/>
-    <row r="47" s="3" customFormat="1"/>
-    <row r="48" s="3" customFormat="1"/>
-    <row r="49" s="3" customFormat="1"/>
-    <row r="50" s="3" customFormat="1"/>
-    <row r="51" s="3" customFormat="1"/>
-    <row r="52" s="3" customFormat="1"/>
-    <row r="53" s="3" customFormat="1"/>
-    <row r="54" s="3" customFormat="1"/>
-    <row r="55" s="3" customFormat="1"/>
-    <row r="56" s="3" customFormat="1"/>
-    <row r="57" s="3" customFormat="1"/>
-    <row r="58" s="3" customFormat="1"/>
-    <row r="59" s="3" customFormat="1"/>
-    <row r="60" s="3" customFormat="1"/>
-    <row r="61" s="3" customFormat="1"/>
-    <row r="62" s="3" customFormat="1"/>
-    <row r="63" s="3" customFormat="1"/>
-    <row r="64" s="3" customFormat="1"/>
-    <row r="65" s="3" customFormat="1"/>
-    <row r="66" s="3" customFormat="1"/>
-    <row r="67" s="3" customFormat="1"/>
-    <row r="68" s="3" customFormat="1"/>
-    <row r="69" s="3" customFormat="1"/>
-    <row r="70" s="3" customFormat="1"/>
-    <row r="71" s="3" customFormat="1"/>
-    <row r="72" s="3" customFormat="1"/>
-    <row r="73" s="3" customFormat="1"/>
-    <row r="74" s="3" customFormat="1"/>
-    <row r="75" s="3" customFormat="1"/>
-    <row r="76" s="3" customFormat="1"/>
-    <row r="77" s="3" customFormat="1"/>
-    <row r="78" s="3" customFormat="1"/>
-    <row r="79" s="3" customFormat="1"/>
-    <row r="80" s="3" customFormat="1"/>
-    <row r="81" s="3" customFormat="1"/>
-    <row r="82" s="3" customFormat="1"/>
-    <row r="83" s="3" customFormat="1"/>
-    <row r="84" s="3" customFormat="1"/>
-    <row r="85" s="3" customFormat="1"/>
-    <row r="86" s="3" customFormat="1"/>
-    <row r="87" s="3" customFormat="1"/>
-    <row r="88" s="3" customFormat="1"/>
-    <row r="89" s="3" customFormat="1"/>
-    <row r="90" s="3" customFormat="1"/>
-    <row r="91" s="3" customFormat="1"/>
-    <row r="92" s="3" customFormat="1"/>
-    <row r="93" s="3" customFormat="1"/>
-    <row r="94" s="3" customFormat="1"/>
-    <row r="95" s="3" customFormat="1"/>
-    <row r="96" s="3" customFormat="1"/>
-    <row r="97" s="3" customFormat="1"/>
-    <row r="98" s="3" customFormat="1"/>
-    <row r="99" s="3" customFormat="1"/>
-    <row r="100" s="3" customFormat="1"/>
-    <row r="101" s="3" customFormat="1"/>
-    <row r="102" s="3" customFormat="1"/>
-    <row r="103" s="3" customFormat="1"/>
-    <row r="104" s="3" customFormat="1"/>
-    <row r="105" s="3" customFormat="1"/>
-    <row r="106" s="3" customFormat="1"/>
-    <row r="107" s="3" customFormat="1"/>
-    <row r="108" s="3" customFormat="1"/>
-    <row r="109" s="3" customFormat="1"/>
-    <row r="110" s="3" customFormat="1"/>
-    <row r="111" s="3" customFormat="1"/>
-    <row r="112" s="3" customFormat="1"/>
-    <row r="113" s="3" customFormat="1"/>
-    <row r="114" s="3" customFormat="1"/>
-    <row r="115" s="3" customFormat="1"/>
-    <row r="116" s="3" customFormat="1"/>
-    <row r="117" s="3" customFormat="1"/>
-    <row r="118" s="3" customFormat="1"/>
-    <row r="119" s="3" customFormat="1"/>
-    <row r="120" s="3" customFormat="1"/>
-    <row r="121" s="3" customFormat="1"/>
-    <row r="122" s="3" customFormat="1"/>
-    <row r="123" s="3" customFormat="1"/>
-    <row r="124" s="3" customFormat="1"/>
-    <row r="125" s="3" customFormat="1"/>
-    <row r="126" s="3" customFormat="1"/>
-    <row r="127" s="3" customFormat="1"/>
-    <row r="128" s="3" customFormat="1"/>
-    <row r="129" s="3" customFormat="1"/>
-    <row r="130" s="3" customFormat="1"/>
-    <row r="131" s="3" customFormat="1"/>
-    <row r="132" s="3" customFormat="1"/>
-    <row r="133" s="3" customFormat="1"/>
-    <row r="134" s="3" customFormat="1"/>
-    <row r="135" s="3" customFormat="1"/>
-    <row r="136" s="3" customFormat="1"/>
-    <row r="137" s="3" customFormat="1"/>
-    <row r="138" s="3" customFormat="1"/>
-    <row r="139" s="3" customFormat="1"/>
-    <row r="140" s="3" customFormat="1"/>
-    <row r="141" s="3" customFormat="1"/>
-    <row r="142" s="3" customFormat="1"/>
-    <row r="143" s="3" customFormat="1"/>
-    <row r="144" s="3" customFormat="1"/>
-    <row r="145" spans="2:11">
-      <c r="I145" s="3"/>
-      <c r="J145" s="3"/>
-      <c r="K145" s="3"/>
+    <row r="17" s="2" customFormat="1"/>
+    <row r="18" s="2" customFormat="1"/>
+    <row r="19" s="2" customFormat="1"/>
+    <row r="20" s="2" customFormat="1"/>
+    <row r="21" s="2" customFormat="1"/>
+    <row r="22" s="2" customFormat="1"/>
+    <row r="23" s="2" customFormat="1"/>
+    <row r="24" s="2" customFormat="1"/>
+    <row r="25" s="2" customFormat="1"/>
+    <row r="26" s="2" customFormat="1"/>
+    <row r="27" s="2" customFormat="1"/>
+    <row r="28" s="2" customFormat="1"/>
+    <row r="29" s="2" customFormat="1"/>
+    <row r="30" s="2" customFormat="1"/>
+    <row r="31" s="2" customFormat="1"/>
+    <row r="32" s="2" customFormat="1"/>
+    <row r="33" s="2" customFormat="1"/>
+    <row r="34" s="2" customFormat="1"/>
+    <row r="35" s="2" customFormat="1"/>
+    <row r="36" s="2" customFormat="1"/>
+    <row r="37" s="2" customFormat="1"/>
+    <row r="38" s="2" customFormat="1"/>
+    <row r="39" s="2" customFormat="1"/>
+    <row r="40" s="2" customFormat="1"/>
+    <row r="41" s="2" customFormat="1"/>
+    <row r="42" s="2" customFormat="1"/>
+    <row r="43" s="2" customFormat="1"/>
+    <row r="44" s="2" customFormat="1"/>
+    <row r="45" s="2" customFormat="1"/>
+    <row r="46" s="2" customFormat="1"/>
+    <row r="47" s="2" customFormat="1"/>
+    <row r="48" s="2" customFormat="1"/>
+    <row r="49" s="2" customFormat="1"/>
+    <row r="50" s="2" customFormat="1"/>
+    <row r="51" s="2" customFormat="1"/>
+    <row r="52" s="2" customFormat="1"/>
+    <row r="53" s="2" customFormat="1"/>
+    <row r="54" s="2" customFormat="1"/>
+    <row r="55" s="2" customFormat="1"/>
+    <row r="56" s="2" customFormat="1"/>
+    <row r="57" s="2" customFormat="1"/>
+    <row r="58" s="2" customFormat="1"/>
+    <row r="59" s="2" customFormat="1"/>
+    <row r="60" s="2" customFormat="1"/>
+    <row r="61" s="2" customFormat="1"/>
+    <row r="62" s="2" customFormat="1"/>
+    <row r="63" s="2" customFormat="1"/>
+    <row r="64" s="2" customFormat="1"/>
+    <row r="65" s="2" customFormat="1"/>
+    <row r="66" s="2" customFormat="1"/>
+    <row r="67" s="2" customFormat="1"/>
+    <row r="68" s="2" customFormat="1"/>
+    <row r="69" s="2" customFormat="1"/>
+    <row r="70" s="2" customFormat="1"/>
+    <row r="71" s="2" customFormat="1"/>
+    <row r="72" s="2" customFormat="1"/>
+    <row r="73" s="2" customFormat="1"/>
+    <row r="74" s="2" customFormat="1"/>
+    <row r="75" s="2" customFormat="1"/>
+    <row r="76" s="2" customFormat="1"/>
+    <row r="77" s="2" customFormat="1"/>
+    <row r="78" s="2" customFormat="1"/>
+    <row r="79" s="2" customFormat="1"/>
+    <row r="80" s="2" customFormat="1"/>
+    <row r="81" s="2" customFormat="1"/>
+    <row r="82" s="2" customFormat="1"/>
+    <row r="83" s="2" customFormat="1"/>
+    <row r="84" s="2" customFormat="1"/>
+    <row r="85" s="2" customFormat="1"/>
+    <row r="86" s="2" customFormat="1"/>
+    <row r="87" s="2" customFormat="1"/>
+    <row r="88" s="2" customFormat="1"/>
+    <row r="89" s="2" customFormat="1"/>
+    <row r="90" s="2" customFormat="1"/>
+    <row r="91" s="2" customFormat="1"/>
+    <row r="92" s="2" customFormat="1"/>
+    <row r="93" s="2" customFormat="1"/>
+    <row r="94" s="2" customFormat="1"/>
+    <row r="95" s="2" customFormat="1"/>
+    <row r="96" s="2" customFormat="1"/>
+    <row r="97" s="2" customFormat="1"/>
+    <row r="98" s="2" customFormat="1"/>
+    <row r="99" s="2" customFormat="1"/>
+    <row r="100" s="2" customFormat="1"/>
+    <row r="101" s="2" customFormat="1"/>
+    <row r="102" s="2" customFormat="1"/>
+    <row r="103" s="2" customFormat="1"/>
+    <row r="104" s="2" customFormat="1"/>
+    <row r="105" s="2" customFormat="1"/>
+    <row r="106" s="2" customFormat="1"/>
+    <row r="107" s="2" customFormat="1"/>
+    <row r="108" s="2" customFormat="1"/>
+    <row r="109" s="2" customFormat="1"/>
+    <row r="110" s="2" customFormat="1"/>
+    <row r="111" s="2" customFormat="1"/>
+    <row r="112" s="2" customFormat="1"/>
+    <row r="113" s="2" customFormat="1"/>
+    <row r="114" s="2" customFormat="1"/>
+    <row r="115" s="2" customFormat="1"/>
+    <row r="116" s="2" customFormat="1"/>
+    <row r="117" s="2" customFormat="1"/>
+    <row r="118" s="2" customFormat="1"/>
+    <row r="119" s="2" customFormat="1"/>
+    <row r="120" s="2" customFormat="1"/>
+    <row r="121" s="2" customFormat="1"/>
+    <row r="122" s="2" customFormat="1"/>
+    <row r="123" s="2" customFormat="1"/>
+    <row r="124" s="2" customFormat="1"/>
+    <row r="125" s="2" customFormat="1"/>
+    <row r="126" s="2" customFormat="1"/>
+    <row r="127" s="2" customFormat="1"/>
+    <row r="128" s="2" customFormat="1"/>
+    <row r="129" s="2" customFormat="1"/>
+    <row r="130" s="2" customFormat="1"/>
+    <row r="131" s="2" customFormat="1"/>
+    <row r="132" s="2" customFormat="1"/>
+    <row r="133" s="2" customFormat="1"/>
+    <row r="134" s="2" customFormat="1"/>
+    <row r="135" s="2" customFormat="1"/>
+    <row r="136" s="2" customFormat="1"/>
+    <row r="137" s="2" customFormat="1"/>
+    <row r="138" s="2" customFormat="1"/>
+    <row r="139" s="2" customFormat="1"/>
+    <row r="140" s="2" customFormat="1"/>
+    <row r="141" s="2" customFormat="1"/>
+    <row r="142" s="2" customFormat="1"/>
+    <row r="143" s="2" customFormat="1"/>
+    <row r="144" s="2" customFormat="1"/>
+    <row r="145" spans="1:11">
+      <c r="I145" s="2"/>
+      <c r="J145" s="2"/>
+      <c r="K145" s="2"/>
     </row>
-    <row r="146" spans="2:11">
-      <c r="I146" s="3"/>
-      <c r="J146" s="3"/>
-      <c r="K146" s="3"/>
+    <row r="146" spans="1:11">
+      <c r="I146" s="2"/>
+      <c r="J146" s="2"/>
+      <c r="K146" s="2"/>
     </row>
-    <row r="147" spans="2:11">
-      <c r="I147" s="3"/>
-      <c r="J147" s="3"/>
-      <c r="K147" s="3"/>
+    <row r="147" spans="1:11">
+      <c r="I147" s="2"/>
+      <c r="J147" s="2"/>
+      <c r="K147" s="2"/>
     </row>
-    <row r="148" spans="2:11">
-      <c r="I148" s="3"/>
-      <c r="J148" s="3"/>
-      <c r="K148" s="3"/>
+    <row r="148" spans="1:11">
+      <c r="I148" s="2"/>
+      <c r="J148" s="2"/>
+      <c r="K148" s="2"/>
     </row>
-    <row r="149" spans="2:11">
-      <c r="I149" s="3"/>
-      <c r="J149" s="3"/>
-      <c r="K149" s="3"/>
+    <row r="149" spans="1:11">
+      <c r="I149" s="2"/>
+      <c r="J149" s="2"/>
+      <c r="K149" s="2"/>
     </row>
-    <row r="150" spans="2:11">
-      <c r="I150" s="3"/>
-      <c r="J150" s="3"/>
-      <c r="K150" s="3"/>
+    <row r="150" spans="1:11">
+      <c r="I150" s="2"/>
+      <c r="J150" s="2"/>
+      <c r="K150" s="2"/>
     </row>
-    <row r="151" spans="2:11">
-      <c r="I151" s="3"/>
-      <c r="J151" s="3"/>
-      <c r="K151" s="3"/>
+    <row r="151" spans="1:11">
+      <c r="I151" s="2"/>
+      <c r="J151" s="2"/>
+      <c r="K151" s="2"/>
     </row>
-    <row r="152" spans="2:11">
-      <c r="I152" s="3"/>
-      <c r="J152" s="3"/>
-      <c r="K152" s="3"/>
+    <row r="152" spans="1:11">
+      <c r="I152" s="2"/>
+      <c r="J152" s="2"/>
+      <c r="K152" s="2"/>
     </row>
-    <row r="153" spans="2:11">
-      <c r="I153" s="3"/>
-      <c r="J153" s="3"/>
-      <c r="K153" s="3"/>
+    <row r="153" spans="1:11">
+      <c r="I153" s="2"/>
+      <c r="J153" s="2"/>
+      <c r="K153" s="2"/>
     </row>
-    <row r="154" spans="2:11">
-      <c r="I154" s="3"/>
-      <c r="J154" s="3"/>
-      <c r="K154" s="3"/>
+    <row r="154" spans="1:11">
+      <c r="I154" s="2"/>
+      <c r="J154" s="2"/>
+      <c r="K154" s="2"/>
     </row>
-    <row r="155" spans="2:11">
-      <c r="I155" s="3"/>
-      <c r="J155" s="3"/>
-      <c r="K155" s="3"/>
+    <row r="155" spans="1:11">
+      <c r="I155" s="2"/>
+      <c r="J155" s="2"/>
+      <c r="K155" s="2"/>
     </row>
-    <row r="156" spans="2:11">
+    <row r="156" spans="1:11">
+      <c r="A156" s="4"/>
       <c r="B156" s="8"/>
-      <c r="I156" s="3"/>
-      <c r="J156" s="5"/>
-      <c r="K156" s="3"/>
+      <c r="I156" s="2"/>
+      <c r="J156" s="9"/>
+      <c r="K156" s="2"/>
     </row>
-    <row r="157" spans="2:11">
-      <c r="I157" s="3"/>
-      <c r="J157" s="3"/>
-      <c r="K157" s="3"/>
+    <row r="157" spans="1:11">
+      <c r="I157" s="2"/>
+      <c r="J157" s="2"/>
+      <c r="K157" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="32" type="noConversion"/>
@@ -18691,1948 +18673,1948 @@
   <sheetPr codeName="Sheet28"/>
   <dimension ref="A1:D138"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A134" sqref="A134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="25.54296875" style="2" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="21" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="56.6328125" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="100.81640625" style="2" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="14.1796875" style="2" customWidth="1" collapsed="1"/>
     <col min="5" max="16384" width="9.1796875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25" customHeight="1">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="13">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="13">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="13">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="13">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:4">
+      <c r="A16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="13">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="13">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="13">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:4">
+      <c r="A20" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="13">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:4">
+      <c r="A21" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="13">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:4">
+      <c r="A22" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="13">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="13">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="13">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="13">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:4">
+      <c r="A26" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="13">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:4">
+      <c r="A27" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="13">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:4">
+      <c r="A28" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="13">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:4">
+      <c r="A29" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="13">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:4">
+      <c r="A30" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="13">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:4">
+      <c r="A31" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="13">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:4">
+      <c r="A32" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="13">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:4">
+      <c r="A33" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="13">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:4">
+      <c r="A34" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="13">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:4">
+      <c r="A35" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="13">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:4">
+      <c r="A36" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="13">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:4">
+      <c r="A37" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="13">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:4">
+      <c r="A38" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="13">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:4">
+      <c r="A39" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="13">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:4">
+      <c r="A40" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="13">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:4">
+      <c r="A41" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="13">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="1:4">
+      <c r="A42" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="13">
-      <c r="A43" s="3" t="s">
+    <row r="43" spans="1:4">
+      <c r="A43" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="13">
-      <c r="A44" s="3" t="s">
+    <row r="44" spans="1:4">
+      <c r="A44" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="13">
-      <c r="A45" s="3" t="s">
+    <row r="45" spans="1:4">
+      <c r="A45" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="13">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:4">
+      <c r="A46" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="13">
-      <c r="A47" s="3" t="s">
+    <row r="47" spans="1:4">
+      <c r="A47" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="13">
-      <c r="A48" s="3" t="s">
+    <row r="48" spans="1:4">
+      <c r="A48" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="13">
-      <c r="A49" s="3" t="s">
+    <row r="49" spans="1:4">
+      <c r="A49" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="13">
-      <c r="A50" s="3" t="s">
+    <row r="50" spans="1:4">
+      <c r="A50" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="13">
-      <c r="A51" s="3" t="s">
+    <row r="51" spans="1:4">
+      <c r="A51" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="13">
-      <c r="A52" s="3" t="s">
+    <row r="52" spans="1:4">
+      <c r="A52" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="13">
-      <c r="A53" s="3" t="s">
+    <row r="53" spans="1:4">
+      <c r="A53" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="13">
-      <c r="A54" s="3" t="s">
+    <row r="54" spans="1:4">
+      <c r="A54" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="13">
-      <c r="A55" s="3" t="s">
+    <row r="55" spans="1:4">
+      <c r="A55" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="13">
-      <c r="A56" s="3" t="s">
+    <row r="56" spans="1:4">
+      <c r="A56" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="13">
-      <c r="A57" s="3" t="s">
+    <row r="57" spans="1:4">
+      <c r="A57" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="13">
-      <c r="A58" s="3" t="s">
+    <row r="58" spans="1:4">
+      <c r="A58" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="13">
-      <c r="A59" s="3" t="s">
+    <row r="59" spans="1:4">
+      <c r="A59" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="13">
-      <c r="A60" s="3" t="s">
+    <row r="60" spans="1:4">
+      <c r="A60" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="13">
-      <c r="A61" s="3" t="s">
+    <row r="61" spans="1:4">
+      <c r="A61" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="13">
-      <c r="A62" s="3" t="s">
+    <row r="62" spans="1:4">
+      <c r="A62" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="13">
-      <c r="A63" s="3" t="s">
+    <row r="63" spans="1:4">
+      <c r="A63" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="13">
-      <c r="A64" s="3" t="s">
+    <row r="64" spans="1:4">
+      <c r="A64" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="13">
-      <c r="A65" s="3" t="s">
+    <row r="65" spans="1:4">
+      <c r="A65" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="13">
-      <c r="A66" s="3" t="s">
+    <row r="66" spans="1:4">
+      <c r="A66" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="13">
-      <c r="A67" s="3" t="s">
+    <row r="67" spans="1:4">
+      <c r="A67" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="13">
-      <c r="A68" s="3" t="s">
+    <row r="68" spans="1:4">
+      <c r="A68" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="13">
-      <c r="A69" s="3" t="s">
+    <row r="69" spans="1:4">
+      <c r="A69" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="13">
-      <c r="A70" s="3" t="s">
+    <row r="70" spans="1:4">
+      <c r="A70" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="13">
-      <c r="A71" s="3" t="s">
+    <row r="71" spans="1:4">
+      <c r="A71" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="13">
-      <c r="A72" s="3" t="s">
+    <row r="72" spans="1:4">
+      <c r="A72" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="13">
-      <c r="A73" s="3" t="s">
+    <row r="73" spans="1:4">
+      <c r="A73" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="13">
-      <c r="A74" s="3" t="s">
+    <row r="74" spans="1:4">
+      <c r="A74" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="13">
-      <c r="A75" s="3" t="s">
+    <row r="75" spans="1:4">
+      <c r="A75" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="13">
-      <c r="A76" s="3" t="s">
+    <row r="76" spans="1:4">
+      <c r="A76" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="13">
-      <c r="A77" s="3" t="s">
+    <row r="77" spans="1:4">
+      <c r="A77" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="13">
-      <c r="A78" s="3" t="s">
+    <row r="78" spans="1:4">
+      <c r="A78" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="13">
-      <c r="A79" s="3" t="s">
+    <row r="79" spans="1:4">
+      <c r="A79" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="13">
-      <c r="A80" s="3" t="s">
+    <row r="80" spans="1:4">
+      <c r="A80" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="13">
-      <c r="A81" s="3" t="s">
+    <row r="81" spans="1:4">
+      <c r="A81" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="13">
-      <c r="A82" s="3" t="s">
+    <row r="82" spans="1:4">
+      <c r="A82" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="13">
-      <c r="A83" s="3" t="s">
+    <row r="83" spans="1:4">
+      <c r="A83" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="13">
-      <c r="A84" s="3" t="s">
+    <row r="84" spans="1:4">
+      <c r="A84" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="13">
-      <c r="A85" s="3" t="s">
+    <row r="85" spans="1:4">
+      <c r="A85" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="13">
-      <c r="A86" s="3" t="s">
+    <row r="86" spans="1:4">
+      <c r="A86" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="13">
-      <c r="A87" s="3" t="s">
+    <row r="87" spans="1:4">
+      <c r="A87" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="13">
-      <c r="A88" s="3" t="s">
+    <row r="88" spans="1:4">
+      <c r="A88" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="13">
-      <c r="A89" s="3" t="s">
+    <row r="89" spans="1:4">
+      <c r="A89" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="13">
-      <c r="A90" s="3" t="s">
+    <row r="90" spans="1:4">
+      <c r="A90" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="13">
-      <c r="A91" s="3" t="s">
+    <row r="91" spans="1:4">
+      <c r="A91" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="13">
-      <c r="A92" s="3" t="s">
+    <row r="92" spans="1:4">
+      <c r="A92" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="13">
-      <c r="A93" s="3" t="s">
+    <row r="93" spans="1:4">
+      <c r="A93" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D93" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="13">
-      <c r="A94" s="3" t="s">
+    <row r="94" spans="1:4">
+      <c r="A94" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="13">
-      <c r="A95" s="3" t="s">
+    <row r="95" spans="1:4">
+      <c r="A95" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D95" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="13">
-      <c r="A96" s="3" t="s">
+    <row r="96" spans="1:4">
+      <c r="A96" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D96" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="13">
-      <c r="A97" s="3" t="s">
+    <row r="97" spans="1:4">
+      <c r="A97" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="13">
-      <c r="A98" s="3" t="s">
+    <row r="98" spans="1:4">
+      <c r="A98" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="13">
-      <c r="A99" s="3" t="s">
+    <row r="99" spans="1:4">
+      <c r="A99" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D99" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="13">
-      <c r="A100" s="3" t="s">
+    <row r="100" spans="1:4">
+      <c r="A100" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="13">
-      <c r="A101" s="3" t="s">
+    <row r="101" spans="1:4">
+      <c r="A101" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="13">
-      <c r="A102" s="3" t="s">
+    <row r="102" spans="1:4">
+      <c r="A102" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D102" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="13">
-      <c r="A103" s="3" t="s">
+    <row r="103" spans="1:4">
+      <c r="A103" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="D103" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="13">
-      <c r="A104" s="3" t="s">
+    <row r="104" spans="1:4">
+      <c r="A104" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D104" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="13">
-      <c r="A105" s="3" t="s">
+    <row r="105" spans="1:4">
+      <c r="A105" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D105" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="13">
-      <c r="A106" s="3" t="s">
+    <row r="106" spans="1:4">
+      <c r="A106" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="D106" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="13">
-      <c r="A107" s="3" t="s">
+    <row r="107" spans="1:4">
+      <c r="A107" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C107" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D107" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="13">
-      <c r="A108" s="3" t="s">
+    <row r="108" spans="1:4">
+      <c r="A108" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="D108" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="13">
-      <c r="A109" s="3" t="s">
+    <row r="109" spans="1:4">
+      <c r="A109" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C109" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D109" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="13">
-      <c r="A110" s="3" t="s">
+    <row r="110" spans="1:4">
+      <c r="A110" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C110" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D110" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="13">
-      <c r="A111" s="3" t="s">
+    <row r="111" spans="1:4">
+      <c r="A111" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="D111" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="13">
-      <c r="A112" s="3" t="s">
+    <row r="112" spans="1:4">
+      <c r="A112" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C112" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D112" s="3" t="s">
+      <c r="D112" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="13">
-      <c r="A113" s="3" t="s">
+    <row r="113" spans="1:4">
+      <c r="A113" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C113" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D113" s="3" t="s">
+      <c r="D113" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="13">
-      <c r="A114" s="3" t="s">
+    <row r="114" spans="1:4">
+      <c r="A114" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C114" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="D114" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="13">
-      <c r="A115" s="3" t="s">
+    <row r="115" spans="1:4">
+      <c r="A115" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="D115" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="13">
-      <c r="A116" s="3" t="s">
+    <row r="116" spans="1:4">
+      <c r="A116" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C116" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="D116" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="13">
-      <c r="A117" s="3" t="s">
+    <row r="117" spans="1:4">
+      <c r="A117" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C117" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D117" s="3" t="s">
+      <c r="D117" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="13">
-      <c r="A118" s="3" t="s">
+    <row r="118" spans="1:4">
+      <c r="A118" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="D118" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="13">
-      <c r="A119" s="3" t="s">
+    <row r="119" spans="1:4">
+      <c r="A119" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C119" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="D119" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="13">
-      <c r="A120" s="3" t="s">
+    <row r="120" spans="1:4">
+      <c r="A120" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="D120" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="13">
-      <c r="A121" s="3" t="s">
+    <row r="121" spans="1:4">
+      <c r="A121" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C121" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="D121" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="13">
-      <c r="A122" s="3" t="s">
+    <row r="122" spans="1:4">
+      <c r="A122" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="D122" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="13">
-      <c r="A123" s="3" t="s">
+    <row r="123" spans="1:4">
+      <c r="A123" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C123" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="D123" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="13">
-      <c r="A124" s="3" t="s">
+    <row r="124" spans="1:4">
+      <c r="A124" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C124" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="D124" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="13">
-      <c r="A125" s="3" t="s">
+    <row r="125" spans="1:4">
+      <c r="A125" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C125" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D125" s="3" t="s">
+      <c r="D125" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="13">
-      <c r="A126" s="3" t="s">
+    <row r="126" spans="1:4">
+      <c r="A126" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D126" s="3" t="s">
+      <c r="D126" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="13">
-      <c r="A127" s="3" t="s">
+    <row r="127" spans="1:4">
+      <c r="A127" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C127" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="D127" s="3" t="s">
+      <c r="D127" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="13">
-      <c r="A128" s="3" t="s">
+    <row r="128" spans="1:4">
+      <c r="A128" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C128" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D128" s="3" t="s">
+      <c r="D128" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="13">
-      <c r="A129" s="3" t="s">
+    <row r="129" spans="1:4">
+      <c r="A129" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C129" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="D129" s="3" t="s">
+      <c r="D129" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="13">
-      <c r="A130" s="3" t="s">
+    <row r="130" spans="1:4">
+      <c r="A130" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C130" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="D130" s="3" t="s">
+      <c r="D130" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="13">
-      <c r="A131" s="3" t="s">
+    <row r="131" spans="1:4">
+      <c r="A131" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C131" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D131" s="3" t="s">
+      <c r="D131" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="13">
-      <c r="A132" s="3" t="s">
+    <row r="132" spans="1:4">
+      <c r="A132" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C132" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="D132" s="3" t="s">
+      <c r="D132" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="13">
-      <c r="A133" s="3" t="s">
+    <row r="133" spans="1:4">
+      <c r="A133" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C133" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D133" s="3" t="s">
+      <c r="D133" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="13">
-      <c r="A134" s="3" t="s">
+    <row r="134" spans="1:4">
+      <c r="A134" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C134" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D134" s="3" t="s">
+      <c r="D134" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="13">
-      <c r="A135" s="3" t="s">
+    <row r="135" spans="1:4">
+      <c r="A135" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="C135" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="D135" s="3" t="s">
+      <c r="D135" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="13">
-      <c r="A136" s="3" t="s">
+    <row r="136" spans="1:4">
+      <c r="A136" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C136" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D136" s="3" t="s">
+      <c r="D136" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="13">
-      <c r="A137" s="3" t="s">
+    <row r="137" spans="1:4">
+      <c r="A137" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="C137" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D137" s="3" t="s">
+      <c r="D137" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="13">
-      <c r="A138" s="3" t="s">
+    <row r="138" spans="1:4">
+      <c r="A138" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="C138" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D138" s="3" t="s">
+      <c r="D138" s="2" t="s">
         <v>25</v>
       </c>
     </row>
